--- a/biology/Écologie/Écosystèmes_de_la_Colombie-Britannique/Écosystèmes_de_la_Colombie-Britannique.xlsx
+++ b/biology/Écologie/Écosystèmes_de_la_Colombie-Britannique/Écosystèmes_de_la_Colombie-Britannique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombie-Britannique est la province qui est située la plus au sud-ouest  du Canada. Elle est principalement dominée par des chaînes montagneuses recouvertes de vastes forêts, tandis que ses côtes sont découpées de nombreux fjords qui abritent des eaux profondes. Les îles sont particulièrement nombreuses et l'une d'entre elles, l'île de Vancouver, a une très grande superficie.
 La Colombie-Britannique est une province vaste et diverse, tant dans sa géographie physique que par les écosystèmes qui y sont présents. Si globalement on peut la définir  comme une région montagneuse et forestière, au climat frais et humide, la province comprend également des zones avec des types de relief et climats différents.
-En ce qui concerne le relief, on trouve des plateaux, des plaines et des bassins sédimentaires, en plus des formations montagneuses ; tandis qu'en matière de climats on trouve également, en plus du climat océanique, des climats méditerranéen, semi-aride, sub-arctique ou alpin. Les forêts sont dominantes dans la végétation, cependant il existe également de grandes prairies, des zones humides ainsi que des étendues de broussailles ou de toundra[1].
+En ce qui concerne le relief, on trouve des plateaux, des plaines et des bassins sédimentaires, en plus des formations montagneuses ; tandis qu'en matière de climats on trouve également, en plus du climat océanique, des climats méditerranéen, semi-aride, sub-arctique ou alpin. Les forêts sont dominantes dans la végétation, cependant il existe également de grandes prairies, des zones humides ainsi que des étendues de broussailles ou de toundra.
 La plupart des types de sols connus peuvent être rencontrés en Colombie-Britannique.
 La Colombie-Britannique n'a commencé à être urbanisée que vers la fin du XIXe siècle. Aujourd'hui encore la plus grande partie de son territoire a conservé son caractère sauvage et vierge. Le climat et la morphologie de ses paysages font de la Colombie-Britannique un ensemble d'écosystèmes particulièrement remarquables.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Influence de la géomorphologie sur le climat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Colombie-Britannique est marquée par deux éléments déterminants : les montagnes et la mer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie-Britannique est marquée par deux éléments déterminants : les montagnes et la mer.
 Surgissant de l'océan Pacifique, deux chaînes montagneuses globalement parallèles, découpées de vallées et de fjords aux parois pentues, s'étirent le long de la côte. L'environnement côtier est ainsi caractérisé par les courants d'air océaniques, doux et humides, en direction de l'est qui s'écoulent au-dessus de ces montagnes. Lorsque cet air s'élève le long des pentes des montagnes, son humidité se précipite sous forme de pluie ou de neige, produisant le climat le plus humide du Canada et les terres forestières les plus productives.
 Plus à l'est les montagnes côtières cèdent la place à un vaste plateau, le plateau Intérieur (Interior Plateau) et à des montagnes moins élevées. L'air du Pacifique qui a été asséché se retrouve alors sous l'influence des masses d'air continentales produisant ainsi un climat continental avec des extremums de température et de précipitations plus marqués. Les climats les plus secs se trouvent dans le sud du plateau Intérieur, à l'est des montagnes côtières.
 Dans le sud-est, l'air du Pacifique perd à nouveau son humidité lorsqu'il s'élève au-dessus des monts Columbia et des Rocheuses créant une zone d'humidité intérieure.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Système de classification
-Le ministère de l'Environnement de Colombie-Britannique (Ministry of Environnement) utilise une classification sur cinq niveaux qui délimitent des portions continues de territoires présentant des similarités climatiques et physiographiques, de plus en plus petites et de plus en plus uniformes[3],[4] :
+          <t>Système de classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de l'Environnement de Colombie-Britannique (Ministry of Environnement) utilise une classification sur cinq niveaux qui délimitent des portions continues de territoires présentant des similarités climatiques et physiographiques, de plus en plus petites et de plus en plus uniformes, :
 Écodomaine (ecodomain) : un territoire ayant globalement une uniformité climatique
 Écodivision (ecodivision) : une sous-division d'un écodomaine ayant globalement une uniformité physiographique
 Écoprovince (ecoprovince) : une sous-division d'une écodivision présentant une cohérence du point de vue de la plaque tectonique
@@ -561,27 +580,176 @@
 Écosection (ecosection) : une sous-division d'une écorégion présentant des différentiations physiographique et macroclimatique mineures
 L'écodomaine et l'écodivision délimitent de larges portions de la Colombie-Britannique, ces niveaux sont utilisés pour décrire globalement l'ensemble de la province. L'écoprovince, l'écorégion et l'écosection sont plus petites et sont utilisées à un niveau plus local, l'écosection est l'unité la plus élémentaire de cette classification.
 Il existe également une classification en zones bio-géoclimatiques par regroupement d'écosections. Ces écosections ne sont pas forcément adjacentes et une zone bio-géoclimatique ne représente donc pas un territoire continu, mais un ensemble de parcelles disséminées géographiquement.
-Classement des écosystèmes
-Écodomaines et écodivisions
-La Colombie-Britannique comprend trois écodomaines terrestres et un écodomaine maritime, ces écodomaines sont eux-mêmes divisés en sept écodivisions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification écologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classement des écosystèmes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Écodomaines et écodivisions</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Colombie-Britannique comprend trois écodomaines terrestres et un écodomaine maritime, ces écodomaines sont eux-mêmes divisés en sept écodivisions.
 Écodomaines terrestres :
 Tempéré humide (Humid Temperate), inclut deux écodivisions : Maritime humide et terres élevées (Humid Maritime and Highlands), Continental humide et terres élevées (Continental Humid and Highlands).
 Sec (Dry), inclut une seule écodivision : Terres élevées de steppe semi-aride (Semi-Arid Steppe Highlands).
 Polaire (Polar), inclut trois écodivisions : Terres élevées subarctiques (Sub-Arctic Highlands), Subarctique (Sub-Arctic), Boréal (Boreal).
 Écodomaine maritime :
-Océanique frais (Cool Oceanic), inclut une seule écodivision : Pacifique subarctique (Sub-Arctic Pacific)
-Écoprovinces
-La Colombie-Britannique comprend une écoprovince océanique, sept écoprovinces terrestres et deux écoprovinces mixtes (maritimes/terrestres).
+Océanique frais (Cool Oceanic), inclut une seule écodivision : Pacifique subarctique (Sub-Arctic Pacific)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classement des écosystèmes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Écoprovinces</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Colombie-Britannique comprend une écoprovince océanique, sept écoprovinces terrestres et deux écoprovinces mixtes (maritimes/terrestres).
 Écoprovince océanique : Pacifique nord-est (Northeast Pacific)
 Écoprovinces terrestres : Centre intérieur  (Central Interior), Sud intérieur (Southern Interior), Intérieur sub-boréal (Sub-Boreal Interior), Plaines boréales (Boreal Plains), Montagnes du sud de l'intérieur (Southern Interior Mountains), Montagnes boréales du nord (Northern Boreal Mountains), Plaines de la taïga (Tiaga Plains)
-Écoprovinces mixtes : Côtes et montagnes (Coast and Mountains), Dépression de Géorgie (Georgia Depression)
-Autres divisions
-La Colombie-Britannique comprend 46 écorégions dont 42 sont terrestres et 4 sont maritimes.
+Écoprovinces mixtes : Côtes et montagnes (Coast and Mountains), Dépression de Géorgie (Georgia Depression)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification écologique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classement des écosystèmes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres divisions</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie-Britannique comprend 46 écorégions dont 42 sont terrestres et 4 sont maritimes.
 Elle comprend 116 écosections qui varient depuis les unités purement terrestres aux unités purement maritimes.
 Tableau récapitulatif de la classification des écosystèmes de Colombie-Britannique
-Zones bio-géoclimatiques
-Une zone bio-géoclimatique regroupe les écosections ayant les mêmes caractéristiques climatiques, physiographiques et géologiques, entraînant des conditions comparables pour le développement des espèces vivantes. Ces écosections ne sont pas forcément adjacentes, une zone bio-géoclimatique ne définit donc pas un territoire continu mais regroupe l'ensemble des portions de territoire ayant les mêmes caractéristiques.
-Le ministère des Forêts de Colombie-Britannique a défini 14 zones bio-géoclimatiques au sein de la province, elles sont dénommées d'après les espèces d'arbres ou le type de végétation dominants[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification écologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zones bio-géoclimatiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une zone bio-géoclimatique regroupe les écosections ayant les mêmes caractéristiques climatiques, physiographiques et géologiques, entraînant des conditions comparables pour le développement des espèces vivantes. Ces écosections ne sont pas forcément adjacentes, une zone bio-géoclimatique ne définit donc pas un territoire continu mais regroupe l'ensemble des portions de territoire ayant les mêmes caractéristiques.
+Le ministère des Forêts de Colombie-Britannique a défini 14 zones bio-géoclimatiques au sein de la province, elles sont dénommées d'après les espèces d'arbres ou le type de végétation dominants :
 Zone côtière du sapin de Douglas (Coastal Douglas-fir Zone, code : CDF)
 Cette zone est limitée à une petite partie du sud-est de l'île de Vancouver, à plusieurs iles du détroit de Géorgie et à une étroite bande de la côte continentale adjacente. Elle est confinée à des altitudes généralement inférieures à 150 mètres. On trouve des zones de même type aux États-Unis, dans l'État de Washington (Puget Sound et îles de San Juan) et dans l'Oregon (vallée Willamette).
 La zone est soumise à des hivers humides et à des étés chauds et secs. Les données de long terme disponibles montrent que la température moyenne annuelle varie entre 9,2 et 10,5 °C et que les précipitations annuelles sont comprises entre 647 et 1 263 mm. La neige tombe rarement et elle ne tient généralement pas plus d'une semaine.
@@ -636,31 +804,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombie-Britannique est particulièrement renommée pour certains arbres comme le sapin de Douglas, l'épicéa de Sitka, la pruche de l'Ouest, l'érable à grandes feuilles (aussi appelé érable de l'Orégon) et le chêne blanc de l'Oregon. La province est aussi renommée pour ses fleurs notamment les orchidées, mais aussi pour la fleur du cornouiller du Pacifique, aussi appelée cornouiller de Nuttall, (Pacific Dogwood) qui a été choisie comme emblème floral.
 Les forêts recouvrent 64 % de la surface de la province. 
@@ -688,43 +858,80 @@
 Épinette noire
 Épinette blanche
 La région côtière est presque complètement recouverte de forêt, son climat tempéré et humide favorise notamment la croissance du thuya géant, du sapin de Douglas, de la pruche de l'ouest, du sapin gracieux et de l'épicéa de Sitka. Le climat plus sec du plateau Intérieur est favorable au pin tordu qui est l'essence la plus répandue dans la province. Le nord de la Colombie-Britannique, au climat plus rude, est recouvert de forêts d'épinettes, de peupliers faux-trembles, de pins et d'arbustes.
-Depuis le début des années 2000, la Colombie-Britannique subit une pullulation de la dendroctone du pin ponderosa, un coléoptère dont la larve se nourrit dans et sous l'écorce des pins, notamment le pin ponderosa. Cette infestation est considérée par les autorités de la province, comme un problème particulièrement important et plusieurs plans d'action ont été mis en œuvre pour lutter contre elle[5].
+Depuis le début des années 2000, la Colombie-Britannique subit une pullulation de la dendroctone du pin ponderosa, un coléoptère dont la larve se nourrit dans et sous l'écorce des pins, notamment le pin ponderosa. Cette infestation est considérée par les autorités de la province, comme un problème particulièrement important et plusieurs plans d'action ont été mis en œuvre pour lutter contre elle.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La Colombie-Britannique est particulièrement renommée pour la présence de nombreuses espèces d'animaux sauvages, notamment les oiseaux marins, les saumons et les ours. Le ministère de l'environnement de la province estime que 1138 espèces de vertébrés y vivent (dont 488 espèces d'oiseaux, 468 espèces de poissons et 142 espèces de mammifères), ainsi qu'entre 50 000 et 70 000 espèces d'invertébrés (dont 35 000 espèces d'insectes). On dénombre 24 espèces de mammifères qui sont exclusives de la province[6].
-Oiseaux de Colombie-Britannique
-Plus de 300 espèces d'oiseaux se reproduisent chaque année en Colombie-Britannique, plus que dans n'importe quelle autre province du Canada. Et parmi ces espèces, on en dénombre 65 qui ne se reproduisent nulle part ailleurs au Canada. Pour certaines espèces, la province abrite même la majorité de la population mondiale. Pour ces raisons, la Colombie-Britannique joue un rôle primordal dans les efforts de sauvegarde des oiseaux du Canada[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie-Britannique est particulièrement renommée pour la présence de nombreuses espèces d'animaux sauvages, notamment les oiseaux marins, les saumons et les ours. Le ministère de l'environnement de la province estime que 1138 espèces de vertébrés y vivent (dont 488 espèces d'oiseaux, 468 espèces de poissons et 142 espèces de mammifères), ainsi qu'entre 50 000 et 70 000 espèces d'invertébrés (dont 35 000 espèces d'insectes). On dénombre 24 espèces de mammifères qui sont exclusives de la province.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Oiseaux de Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Plus de 300 espèces d'oiseaux se reproduisent chaque année en Colombie-Britannique, plus que dans n'importe quelle autre province du Canada. Et parmi ces espèces, on en dénombre 65 qui ne se reproduisent nulle part ailleurs au Canada. Pour certaines espèces, la province abrite même la majorité de la population mondiale. Pour ces raisons, la Colombie-Britannique joue un rôle primordal dans les efforts de sauvegarde des oiseaux du Canada.
 La Colombie-Britannique se trouve sur une importante route migratoire, la Pacific Flyway.
 Le geai de Steller, une des deux espèces de geais bleus, a été choisi comme emblème aviaire officiel de la Colombie-Britannique.
-Principales familles d'oiseaux côtiers observées en Colombie-Britannique[8] :
+Principales familles d'oiseaux côtiers observées en Colombie-Britannique :
 Plongeons
 Grèbes
 Cormorans
@@ -733,57 +940,131 @@
 Limicoles (petits échassiers)
 Rapaces
 Goélands
-Alcidés
-Poissons de Colombie-Britannique
-Un des poissons les plus emblématiques de la province est bien sûr le saumon du Pacifique dont cinq espèces sont indigènes du Canada : le saumon rose, le saumon kéta, le saumon rouge (ou saumon sockeye), le saumon coho (ou saumon argenté) et le saumon quinnat (aussi appelé saumon royal ou saumon chinook)[9]. Il s'agit de poissons anadromes (ils remontent de la mer vers les eaux douces pour frayer). Les saumons déposent leurs œufs dans des nids creusés dans le gravier des cours d'eau (parfois dans les lacs). Les jeunes saumons sont très vulnérables, ils ont besoin d'un gravier exempt de limon et bien oxygéné. L'eau doit être froide, propre et bien oxygénée[10].
+Alcidés</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Poissons de Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des poissons les plus emblématiques de la province est bien sûr le saumon du Pacifique dont cinq espèces sont indigènes du Canada : le saumon rose, le saumon kéta, le saumon rouge (ou saumon sockeye), le saumon coho (ou saumon argenté) et le saumon quinnat (aussi appelé saumon royal ou saumon chinook). Il s'agit de poissons anadromes (ils remontent de la mer vers les eaux douces pour frayer). Les saumons déposent leurs œufs dans des nids creusés dans le gravier des cours d'eau (parfois dans les lacs). Les jeunes saumons sont très vulnérables, ils ont besoin d'un gravier exempt de limon et bien oxygéné. L'eau doit être froide, propre et bien oxygénée.
 Les saumons du Pacifique meurent dans les jours qui suivent la fraie. Leurs cadavres redescendent les rivières et en se décomposant ils chargent l'eau de matières nutritives contribuant ainsi au fonctionnement des écosystèmes d'eau douce. Les saumons constituent aussi une importante source de nourriture pour des oiseaux comme les aigles et les goélands, ainsi que pour des mammifères comme les ours et les loutres.
-Mammifères de Colombie-Britannique
-Ours
-L'ours est un animal symbolique de la Colombie-Britannique. L'ours noir y est très présent, on estime sa population entre 120 000 et 160 000 individus[11] ; à noter l'existence d'une sous-espèce rare d'ours noir qui est propre à la province : l'ours Kermode (ou « ours esprit ») au pelage d'une couleur blanc crème et qui a été choisi comme emblème animal de la Colombie-Britannique.
-La province abrite également une population d'ours bruns (« grizzlys ») estimée à 14 000 individus[12], soit près de la moitié de la population canadienne et le quart de la population américaine[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mammifères de Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ours
+L'ours est un animal symbolique de la Colombie-Britannique. L'ours noir y est très présent, on estime sa population entre 120 000 et 160 000 individus ; à noter l'existence d'une sous-espèce rare d'ours noir qui est propre à la province : l'ours Kermode (ou « ours esprit ») au pelage d'une couleur blanc crème et qui a été choisi comme emblème animal de la Colombie-Britannique.
+La province abrite également une population d'ours bruns (« grizzlys ») estimée à 14 000 individus, soit près de la moitié de la population canadienne et le quart de la population américaine.
 Cervidés
-Les cervidés sont très présents dans les forêts et les plateaux de la Colombie-Britannique, notamment le cerf à queue noire. Le renne (ou caribou) et l'élan (ou orignal) sont également présents, essentiellement dans le nord de la province. L'habitat des caribous occupaient historiquement les deux tiers de la Colombie-Britannique à l'est de la Chaîne Côtière. On estime leur nombre actuellement entre 16 000 et 18 000 individus et on estime qu'il était de 30 000 à 40 000 au début de la colonisation européenne. La Colombie-Britannique abrite la quasi-totalité de la population de l'écotype montagnard du caribou[14].
+Les cervidés sont très présents dans les forêts et les plateaux de la Colombie-Britannique, notamment le cerf à queue noire. Le renne (ou caribou) et l'élan (ou orignal) sont également présents, essentiellement dans le nord de la province. L'habitat des caribous occupaient historiquement les deux tiers de la Colombie-Britannique à l'est de la Chaîne Côtière. On estime leur nombre actuellement entre 16 000 et 18 000 individus et on estime qu'il était de 30 000 à 40 000 au début de la colonisation européenne. La Colombie-Britannique abrite la quasi-totalité de la population de l'écotype montagnard du caribou.
 La plus grande harde de caribous de la province (2000 à 3000 animaux) se trouve sur le plateau Spatsizi dans le nord de la province.
 Caprins
 La chèvre des montagnes Rocheuses et le mouflon de Dall sont deux animaux typiques de la Colombie-Britannique.
 Orques
-Les orques (aussi appelées épaulards) sont très présentes sur les côtes de Colombie-Britannique. On estime leur nombre à plusieurs centaines[15]. On peut ainsi facilement en observer aux environs de l'île de Vancouver et on en a même vus certaines dans les eaux du port de Vancouver.
+Les orques (aussi appelées épaulards) sont très présentes sur les côtes de Colombie-Britannique. On estime leur nombre à plusieurs centaines. On peut ainsi facilement en observer aux environs de l'île de Vancouver et on en a même vus certaines dans les eaux du port de Vancouver.
 Les orques de Colombie-Britannique sont réparties entre trois populations distinctes :
 une population résidente vivant en permanence à proximité des côtes,
 une population en transit qui peut se déplacer jusqu'en Alaska ou au Mexique,
 une population hauturière qui vit essentiellement au large.
-La population résidente se nourrit essentiellement de poissons contrairement aux autres populations qui chassent les mammifères marins. Elle est elle-même divisée en deux collectivités séparées, une qui vit au large du nord de l’île de Vancouver et de la côte continentale de la province, l'autre qui vit au sud de l'île de Vancouver[16]. La population du sud, moins nombreuse, est la plus en danger. Elle est notamment très dépendante des ressources en saumons chinook.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+La population résidente se nourrit essentiellement de poissons contrairement aux autres populations qui chassent les mammifères marins. Elle est elle-même divisée en deux collectivités séparées, une qui vit au large du nord de l’île de Vancouver et de la côte continentale de la province, l'autre qui vit au sud de l'île de Vancouver. La population du sud, moins nombreuse, est la plus en danger. Elle est notamment très dépendante des ressources en saumons chinook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Organisation administrative</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ministère de l'Environnement
-Le 16 juin 2005, Barry Penner a été nommé ministre de l'Environnement (Minister of Environment) et ministre responsable de l'Intendance de l'Eau et des Communautés Durables (Minister Responsible for Water Stewardship and Sustainable Communities).
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ministère de l'Environnement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le 16 juin 2005, Barry Penner a été nommé ministre de l'Environnement (Minister of Environment) et ministre responsable de l'Intendance de l'Eau et des Communautés Durables (Minister Responsible for Water Stewardship and Sustainable Communities).
 Le ministère de l'Environnement (Ministry of Environment) est divisée en neuf directions régionales :
 Région de l'Île de Vancouver (Vancouver Island Region), cette région inclut une partie de la côte continentale entre les baies de Loughborough (Loughborough Inlet) au sud et Seymour (Seymour Inlet) au nord
 Région du Lower Mainland (Lower Mainland Region)
@@ -799,9 +1080,43 @@
 Intendance environnementale (Environmental Stewardship Division )
 Protection environnementale (Environmental Protection Division)
 Directeur de la conservation (Conservation Officer Service)
-Intendance de l'eau (Water Stewardship Division)
-Zones protégées
-La Colombie-Britannique abritent sept des 42 parcs nationaux du Canada[17] :
+Intendance de l'eau (Water Stewardship Division)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écosystèmes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cosyst%C3%A8mes_de_la_Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Organisation administrative</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Zones protégées</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie-Britannique abritent sept des 42 parcs nationaux du Canada :
 Réserve de parc national Pacific Rim (Pacific Rim National Park Reserve)
 Réserve de parc national Îles-Gulf (Gulf Islands National Park Reserve)
 Réserve de parc national Gwaii Haanas et site du patrimoine Haida (Gwaii Haanas National Park Reserve and Haida Heritage Site)
